--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -193,25 +193,25 @@
     <t>最近距离</t>
   </si>
   <si>
-    <t>英雄1000，植物加速成长</t>
+    <t>英雄1000，添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>大水井塔水资源</t>
+  </si>
+  <si>
+    <t>小水井塔水资源</t>
+  </si>
+  <si>
+    <t>小水井塔死亡增加大水井塔产水</t>
   </si>
   <si>
     <t>己方队伍</t>
-  </si>
-  <si>
-    <t>英雄1000，建筑和士兵加速攻击</t>
-  </si>
-  <si>
-    <t>大水井塔水资源</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>小水井塔水资源</t>
-  </si>
-  <si>
-    <t>小水井塔死亡增加大水井塔产水</t>
   </si>
   <si>
     <t>防御塔普攻</t>
@@ -275,7 +275,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,11 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -803,152 +808,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -968,6 +973,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -980,7 +988,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1308,7 +1316,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A10" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1343,10 +1351,10 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1371,10 +1379,10 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1401,10 +1409,10 @@
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1415,14 +1423,14 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:10">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1434,14 +1442,14 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:10">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1456,14 +1464,14 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:10">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1478,14 +1486,14 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:10">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1503,7 +1511,7 @@
       <c r="B8" s="6">
         <v>10000001</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="6">
@@ -1526,7 +1534,7 @@
       <c r="B9" s="6">
         <v>10000101</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="6">
@@ -1535,34 +1543,28 @@
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="6">
-        <v>99</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:10">
       <c r="B10" s="6">
         <v>10000201</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="6">
         <v>50000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="6">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>37</v>
@@ -1576,8 +1578,8 @@
         <v>41</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="11" t="s">
-        <v>42</v>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="6"/>
       <c r="I11" s="6"/>
@@ -1588,11 +1590,11 @@
         <v>30010001</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="11" t="s">
-        <v>42</v>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="6"/>
       <c r="I12" s="6"/>
@@ -1603,11 +1605,11 @@
         <v>30010101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
@@ -1665,15 +1667,15 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:10">
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>32000001</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="11" t="s">
-        <v>42</v>
+      <c r="E16" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="6"/>
       <c r="I16" s="6"/>
@@ -1687,8 +1689,8 @@
         <v>48</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="11" t="s">
-        <v>42</v>
+      <c r="E17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F17" s="6"/>
       <c r="I17" s="6"/>
@@ -1702,8 +1704,8 @@
         <v>49</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="11" t="s">
-        <v>42</v>
+      <c r="E18" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="6"/>
       <c r="I18" s="6"/>
@@ -1864,8 +1866,8 @@
         <v>58</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="11" t="s">
-        <v>42</v>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1878,8 +1880,8 @@
         <v>59</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="11" t="s">
-        <v>42</v>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="6"/>
       <c r="I27" s="6"/>
@@ -1892,8 +1894,8 @@
       <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>42</v>
+      <c r="E28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:9">
@@ -1903,7 +1905,7 @@
       <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="6" t="s">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="22300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>valid_forward</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>ESearchTargetTeam</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>是否朝向过滤</t>
+  </si>
+  <si>
     <t>范围</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>炮弹落地重新索敌</t>
   </si>
   <si>
     <t>大水井塔水资源</t>
@@ -967,23 +979,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1313,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A8:$XFD10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1324,17 +1336,18 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.1607142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6607142857143" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.3482142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.6607142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.8571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="50.4464285714286" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="14.0714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6607142857143" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.3482142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6607142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.8571428571429" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="50.4464285714286" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1351,580 +1364,638 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="8"/>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:10">
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:10">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:11">
       <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5">
         <v>99</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:10">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:11">
       <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
         <v>3001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="5">
         <v>99</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:10">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:11">
       <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2">
         <v>3000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="5">
         <v>99</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:10">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:11">
       <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>3300</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="5">
         <v>99</v>
       </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:10">
-      <c r="B8" s="6">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:11">
+      <c r="B8" s="5">
         <v>10000001</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>15000</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:10">
-      <c r="B9" s="6">
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:11">
+      <c r="B9" s="5">
         <v>10000101</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:11">
+      <c r="B10" s="5">
+        <v>10000201</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6">
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:11">
+      <c r="B11" s="5">
+        <v>10000202</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="5">
+        <v>99</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:11">
+      <c r="B12" s="5">
+        <v>30000001</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:11">
+      <c r="B13" s="5">
+        <v>30010001</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:11">
+      <c r="B14" s="2">
+        <v>30010101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="5">
+        <v>99</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:11">
+      <c r="B15" s="5">
+        <v>31000001</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>50000</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:10">
-      <c r="B10" s="6">
-        <v>10000201</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="6">
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:11">
+      <c r="B16" s="5">
+        <v>31000002</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5">
         <v>3</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:10">
-      <c r="B11" s="6">
-        <v>30000001</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:10">
-      <c r="B12" s="6">
-        <v>30010001</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="K16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:11">
+      <c r="B17" s="7">
+        <v>32000001</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:10">
-      <c r="B13" s="2">
-        <v>30010101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:11">
+      <c r="B18" s="5">
+        <v>33000001</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:11">
+      <c r="B19" s="5">
+        <v>39000001</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:11">
+      <c r="B20" s="5">
+        <v>40000001</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:11">
+      <c r="B21" s="5">
+        <v>40000101</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="J21" s="5">
+        <v>99</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:11">
+      <c r="B22" s="5">
+        <v>40010001</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:11">
+      <c r="B23" s="5">
+        <v>40020001</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:11">
+      <c r="B24" s="5">
+        <v>40020002</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:11">
+      <c r="B25" s="5">
+        <v>41000001</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:11">
+      <c r="B26" s="5">
+        <v>49000001</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:11">
+      <c r="B27" s="5">
+        <v>92000001</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:11">
+      <c r="B28" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:6">
+      <c r="B29" s="5">
+        <v>92020001</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:10">
+      <c r="B30" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2">
         <v>3000</v>
       </c>
-      <c r="I13" s="6">
-        <v>99</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:10">
-      <c r="B14" s="6">
-        <v>31000001</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="6">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:10">
-      <c r="B15" s="6">
-        <v>31000002</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="I15" s="6">
-        <v>3</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:10">
-      <c r="B16" s="8">
-        <v>32000001</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:10">
-      <c r="B17" s="6">
-        <v>33000001</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:10">
-      <c r="B18" s="6">
-        <v>39000001</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="2:10">
-      <c r="B19" s="6">
-        <v>40000001</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:10">
-      <c r="B20" s="6">
-        <v>40000101</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="I20" s="6">
-        <v>99</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:10">
-      <c r="B21" s="6">
-        <v>40010001</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:10">
-      <c r="B22" s="6">
-        <v>40020001</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="6">
-        <v>30000</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:10">
-      <c r="B23" s="6">
-        <v>40020002</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="2:10">
-      <c r="B24" s="6">
-        <v>41000001</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="2:10">
-      <c r="B25" s="6">
-        <v>49000001</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="6">
-        <v>30000</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="2:10">
-      <c r="B26" s="6">
-        <v>92000001</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="2:10">
-      <c r="B27" s="6">
-        <v>92010001</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:5">
-      <c r="B28" s="6">
-        <v>92020001</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:9">
-      <c r="B29" s="6">
-        <v>92020002</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="I30" s="2">
         <v>3001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J30" s="2">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22300"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -157,124 +157,67 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>全局增加复活时长</t>
+    <t>英雄1000普攻</t>
+  </si>
+  <si>
+    <t>敌方队伍</t>
+  </si>
+  <si>
+    <t>英雄|士兵</t>
+  </si>
+  <si>
+    <t>最近距离</t>
+  </si>
+  <si>
+    <t>英雄1000，添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>炮弹落地重新索敌</t>
+  </si>
+  <si>
+    <t>防御塔普攻</t>
+  </si>
+  <si>
+    <t>防御塔子弹范围伤</t>
+  </si>
+  <si>
+    <t>兵营A召唤</t>
+  </si>
+  <si>
+    <t>添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>己方队伍</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>普通攻击植物-普攻</t>
+  </si>
+  <si>
+    <t>普通攻击植物-死亡自爆</t>
+  </si>
+  <si>
+    <t>使用血瓶</t>
+  </si>
+  <si>
+    <t>使用水瓶</t>
+  </si>
+  <si>
+    <t>全局随机生成水滴</t>
+  </si>
+  <si>
+    <t>干旱降低水塔速度</t>
   </si>
   <si>
     <t>全体</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>00000101</t>
-  </si>
-  <si>
-    <t>全局增快小水塔产水</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>00000201</t>
-  </si>
-  <si>
-    <t>全局增快大水塔产水</t>
-  </si>
-  <si>
-    <t>00000301</t>
-  </si>
-  <si>
-    <t>全局增加种子箱攻速</t>
-  </si>
-  <si>
-    <t>英雄1000普攻</t>
-  </si>
-  <si>
-    <t>敌方队伍</t>
-  </si>
-  <si>
-    <t>英雄|士兵</t>
-  </si>
-  <si>
-    <t>最近距离</t>
-  </si>
-  <si>
-    <t>英雄1000，添加攻速BUFF</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>英雄1000，3目标子弹伤害</t>
-  </si>
-  <si>
-    <t>炮弹落地重新索敌</t>
-  </si>
-  <si>
-    <t>大水井塔水资源</t>
-  </si>
-  <si>
-    <t>小水井塔水资源</t>
-  </si>
-  <si>
-    <t>小水井塔死亡增加大水井塔产水</t>
-  </si>
-  <si>
-    <t>己方队伍</t>
-  </si>
-  <si>
-    <t>防御塔普攻</t>
-  </si>
-  <si>
-    <t>防御塔子弹范围伤</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>种子台随机生成种子</t>
-  </si>
-  <si>
-    <t>野怪营地召唤</t>
-  </si>
-  <si>
-    <t>普通攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>普通攻击植物-死亡自爆</t>
-  </si>
-  <si>
-    <t>高级攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>远程攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>远程攻击植物-子弹伤害</t>
-  </si>
-  <si>
-    <t>兵营攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>中立怪-普攻</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
-  </si>
-  <si>
-    <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>全局随机生成水滴</t>
-  </si>
-  <si>
-    <t>干旱降低水塔速度</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +944,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1445,170 +1385,169 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:11">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5">
+        <v>10000001</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5">
-        <v>99</v>
-      </c>
-      <c r="K4" s="5"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:11">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5">
+        <v>10000101</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3001</v>
-      </c>
-      <c r="J5" s="5">
-        <v>99</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:11">
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12" t="s">
+      <c r="B6" s="5">
+        <v>10000201</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3000</v>
-      </c>
       <c r="J6" s="5">
-        <v>99</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:11">
-      <c r="B7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="5">
+        <v>10000202</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3300</v>
       </c>
       <c r="J7" s="5">
         <v>99</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:11">
       <c r="B8" s="5">
-        <v>10000001</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>30010001</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:11">
       <c r="B9" s="5">
-        <v>10000101</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>30010002</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:11">
-      <c r="B10" s="5">
-        <v>10000201</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="5">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B10" s="7">
+        <v>30020001</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:11">
       <c r="B11" s="5">
-        <v>10000202</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>30030001</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5">
         <v>20000</v>
       </c>
@@ -1621,374 +1560,118 @@
       <c r="J11" s="5">
         <v>99</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:11">
       <c r="B12" s="5">
-        <v>30000001</v>
+        <v>40000001</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:11">
       <c r="B13" s="5">
-        <v>30010001</v>
+        <v>40000101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5">
+        <v>99</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
-      <c r="B14" s="2">
-        <v>30010101</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="5">
+        <v>92000001</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3000</v>
-      </c>
-      <c r="J14" s="5">
-        <v>99</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:11">
       <c r="B15" s="5">
-        <v>31000001</v>
+        <v>92010001</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
+      <c r="E15" s="5"/>
+      <c r="F15" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:11">
+    <row r="16" s="2" customFormat="1" spans="2:6">
       <c r="B16" s="5">
-        <v>31000002</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>40</v>
+        <v>92020001</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="2:11">
-      <c r="B17" s="7">
-        <v>32000001</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" s="2" customFormat="1" spans="2:10">
+      <c r="B17" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:11">
-      <c r="B18" s="5">
-        <v>33000001</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="2:11">
-      <c r="B19" s="5">
-        <v>39000001</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:11">
-      <c r="B20" s="5">
-        <v>40000001</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:11">
-      <c r="B21" s="5">
-        <v>40000101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="J21" s="5">
-        <v>99</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:11">
-      <c r="B22" s="5">
-        <v>40010001</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:11">
-      <c r="B23" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="2:11">
-      <c r="B24" s="5">
-        <v>40020002</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="2:11">
-      <c r="B25" s="5">
-        <v>41000001</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="2:11">
-      <c r="B26" s="5">
-        <v>49000001</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="2:11">
-      <c r="B27" s="5">
-        <v>92000001</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:11">
-      <c r="B28" s="5">
-        <v>92010001</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:6">
-      <c r="B29" s="5">
-        <v>92020001</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="2:10">
-      <c r="B30" s="5">
-        <v>92020002</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2">
+        <v>46</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2">
         <v>3000</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I17" s="2">
         <v>3001</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J17" s="2">
         <v>99</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -157,7 +157,7 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>英雄1000普攻</t>
+    <t>英雄普攻</t>
   </si>
   <si>
     <t>敌方队伍</t>
@@ -169,13 +169,13 @@
     <t>最近距离</t>
   </si>
   <si>
-    <t>英雄1000，添加攻速BUFF</t>
+    <t>英雄添加攻速BUFF</t>
   </si>
   <si>
     <t>自己</t>
   </si>
   <si>
-    <t>英雄1000，3目标子弹伤害</t>
+    <t>英雄 3目标子弹伤害</t>
   </si>
   <si>
     <t>炮弹落地重新索敌</t>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>全局随机生成水滴</t>
   </si>
   <si>
     <t>干旱降低水塔速度</t>
@@ -1265,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="2:11">
       <c r="B4" s="5">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="2:11">
       <c r="B5" s="5">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>30</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="2:11">
       <c r="B6" s="5">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="2:11">
       <c r="B7" s="5">
-        <v>10000202</v>
+        <v>10010202</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
@@ -1641,37 +1638,26 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:6">
+    <row r="16" s="2" customFormat="1" spans="2:10">
       <c r="B16" s="5">
-        <v>92020001</v>
+        <v>92020002</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:10">
-      <c r="B17" s="5">
-        <v>92020002</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H16" s="2">
         <v>3000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I16" s="2">
         <v>3001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J16" s="2">
         <v>99</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -199,6 +199,9 @@
     <t>建筑</t>
   </si>
   <si>
+    <t>资源塔</t>
+  </si>
+  <si>
     <t>普通攻击植物-普攻</t>
   </si>
   <si>
@@ -209,12 +212,6 @@
   </si>
   <si>
     <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>干旱降低水塔速度</t>
-  </si>
-  <si>
-    <t>全体</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1262,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1560,32 +1557,24 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:11">
-      <c r="B12" s="5">
-        <v>40000001</v>
+      <c r="B12" s="7">
+        <v>30040001</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:11">
       <c r="B13" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>41</v>
@@ -1601,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>29</v>
@@ -1609,22 +1598,31 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
       <c r="B14" s="5">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5">
+        <v>99</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:11">
       <c r="B15" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>43</v>
@@ -1634,32 +1632,24 @@
       <c r="F15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:10">
+    <row r="16" s="2" customFormat="1" spans="2:11">
       <c r="B16" s="5">
-        <v>92020002</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>92010001</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3001</v>
-      </c>
-      <c r="J16" s="2">
-        <v>99</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -193,7 +193,7 @@
     <t>添加攻速BUFF</t>
   </si>
   <si>
-    <t>己方队伍</t>
+    <t>友方含自己</t>
   </si>
   <si>
     <t>建筑</t>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>使用水瓶</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>以下为AI感知环境使</t>
+  </si>
+  <si>
+    <t>周围有敌方</t>
+  </si>
+  <si>
+    <t>周围有友方</t>
+  </si>
+  <si>
+    <t>友方不含自己</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1651,6 +1666,54 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2">
+        <v>98010001</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="2:10">
+      <c r="B19" s="2">
+        <v>98010002</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:I1"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>29</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>以下为通用索敌配置</t>
+  </si>
+  <si>
+    <t>全局单位</t>
+  </si>
+  <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>友方全局单位</t>
+  </si>
+  <si>
+    <t>友方全局</t>
+  </si>
+  <si>
+    <t>敌方全局单位</t>
+  </si>
+  <si>
+    <t>敌方全局</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -1274,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1666,51 +1687,113 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" s="2" customFormat="1" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="2">
+      <c r="D17" s="5"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:11">
+      <c r="B18" s="5">
+        <v>97010001</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:11">
+      <c r="B19" s="5">
+        <v>97010002</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:11">
+      <c r="B20" s="5">
+        <v>97010003</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2">
         <v>98010001</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2">
         <v>50000</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J22" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="2:10">
-      <c r="B19" s="2">
+    <row r="23" hidden="1" spans="2:10">
+      <c r="B23" s="2">
         <v>98010002</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
         <v>30000</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J23" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>炮弹落地重新索敌</t>
+  </si>
+  <si>
+    <t>大本营普攻</t>
+  </si>
+  <si>
+    <t>随机</t>
   </si>
   <si>
     <t>防御塔普攻</t>
@@ -1295,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1508,15 +1514,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="2:11">
       <c r="B8" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>50000</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1527,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:11">
       <c r="B9" s="5">
-        <v>30010002</v>
+        <v>30010001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
@@ -1548,96 +1552,96 @@
         <v>28</v>
       </c>
       <c r="J9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:11">
-      <c r="B10" s="7">
+      <c r="B10" s="5">
+        <v>30010002</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:11">
+      <c r="B11" s="7">
         <v>30020001</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12" t="s">
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:11">
-      <c r="B11" s="5">
+      <c r="G11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:11">
+      <c r="B12" s="5">
         <v>30030001</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>20000</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="5">
         <v>99</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:11">
-      <c r="B12" s="7">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:11">
+      <c r="B13" s="7">
         <v>30040001</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:11">
-      <c r="B13" s="5">
-        <v>40000001</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
       <c r="B14" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -1650,7 +1654,7 @@
         <v>28</v>
       </c>
       <c r="J14" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>29</v>
@@ -1658,68 +1662,75 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:11">
       <c r="B15" s="5">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5">
+        <v>99</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:11">
       <c r="B16" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" s="2" customFormat="1" spans="2:11">
+      <c r="B17" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:11">
-      <c r="B18" s="5">
-        <v>97010001</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="18" s="2" customFormat="1" spans="1:11">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:11">
       <c r="B19" s="5">
-        <v>97010002</v>
+        <v>97010001</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>49</v>
@@ -1735,7 +1746,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="2:11">
       <c r="B20" s="5">
-        <v>97010003</v>
+        <v>97010002</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>51</v>
@@ -1749,51 +1760,67 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" s="2" customFormat="1" spans="2:11">
+      <c r="B21" s="5">
+        <v>97010003</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2">
         <v>98010001</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2">
         <v>50000</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="2:10">
-      <c r="B23" s="2">
-        <v>98010002</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="2:10">
+      <c r="B24" s="2">
+        <v>98010002</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>普通攻击植物-普攻</t>
+  </si>
+  <si>
+    <t>英雄|士兵|建筑</t>
   </si>
   <si>
     <t>普通攻击植物-死亡自爆</t>
@@ -1304,7 +1307,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1651,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -1665,7 +1668,7 @@
         <v>40000101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -1689,7 +1692,7 @@
         <v>92000001</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1704,7 +1707,7 @@
         <v>92010001</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1717,10 +1720,10 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="12"/>
@@ -1733,12 +1736,12 @@
         <v>97010001</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="5"/>
       <c r="J19" s="5"/>
@@ -1749,12 +1752,12 @@
         <v>97010002</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5"/>
       <c r="J20" s="5"/>
@@ -1765,12 +1768,12 @@
         <v>97010003</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="5"/>
       <c r="J21" s="5"/>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -1789,7 +1792,7 @@
         <v>98010001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <v>50000</v>
@@ -1798,7 +1801,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2">
         <v>5</v>
@@ -1809,13 +1812,13 @@
         <v>98010002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2">
         <v>30000</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>使用血瓶</t>
+  </si>
+  <si>
+    <t>英雄|建筑</t>
   </si>
   <si>
     <t>使用水瓶</t>
@@ -1304,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A16" sqref="$A16:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1695,69 +1698,80 @@
         <v>46</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>5000</v>
+      </c>
       <c r="F16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:11">
       <c r="B17" s="5">
         <v>92010001</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:11">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="2:11">
-      <c r="B19" s="5">
-        <v>97010001</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:11">
       <c r="B20" s="5">
-        <v>97010002</v>
+        <v>97010001</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="5"/>
       <c r="J20" s="5"/>
@@ -1765,65 +1779,91 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="2:11">
       <c r="B21" s="5">
-        <v>97010003</v>
+        <v>97010002</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="22" s="2" customFormat="1" spans="2:11">
+      <c r="B22" s="5">
+        <v>97010003</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="2">
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:11">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2">
         <v>98010001</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2">
         <v>50000</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="2:10">
-      <c r="B24" s="2">
+    <row r="26" hidden="1" spans="2:10">
+      <c r="B26" s="2">
         <v>98010002</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
         <v>30000</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J26" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>add_count_prop</t>
+  </si>
+  <si>
     <t>priority</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>array,int</t>
   </si>
   <si>
+    <t>NumericType</t>
+  </si>
+  <si>
     <t>ESearchTargetPriority</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>数量</t>
   </si>
   <si>
+    <t>加成数量的属性</t>
+  </si>
+  <si>
     <t>优先级</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>英雄|士兵</t>
   </si>
   <si>
+    <t>增加普攻目标</t>
+  </si>
+  <si>
     <t>最近距离</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>炮弹落地重新索敌</t>
   </si>
   <si>
+    <t>建筑技能相关索敌</t>
+  </si>
+  <si>
     <t>大本营普攻</t>
   </si>
   <si>
@@ -208,13 +223,19 @@
     <t>资源塔</t>
   </si>
   <si>
-    <t>普通攻击植物-普攻</t>
+    <t>士兵技能相关索敌</t>
+  </si>
+  <si>
+    <t>普攻</t>
   </si>
   <si>
     <t>英雄|士兵|建筑</t>
   </si>
   <si>
-    <t>普通攻击植物-死亡自爆</t>
+    <t>死亡自爆</t>
+  </si>
+  <si>
+    <t>使用物品索敌配置</t>
   </si>
   <si>
     <t>使用血瓶</t>
@@ -226,9 +247,6 @@
     <t>使用水瓶</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>以下为通用索敌配置</t>
   </si>
   <si>
@@ -248,6 +266,9 @@
   </si>
   <si>
     <t>敌方全局</t>
+  </si>
+  <si>
+    <t>1个友方英雄或建筑</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -272,7 +293,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +333,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -481,7 +509,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,70 +839,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,74 +914,77 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -970,6 +1004,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -986,6 +1026,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD17"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1322,14 +1368,15 @@
     <col min="5" max="5" width="15.6607142857143" style="2" customWidth="1"/>
     <col min="6" max="7" width="15.5" style="2" customWidth="1"/>
     <col min="8" max="9" width="12.3482142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6607142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.8571428571429" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="50.4464285714286" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="8.92857142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6428571428571" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="50.4464285714286" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1349,89 +1396,98 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:11">
+      <c r="I3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:12">
       <c r="B4" s="5">
         <v>10010001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="b">
         <v>1</v>
@@ -1440,430 +1496,584 @@
         <v>30000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5">
         <v>99</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:11">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:12">
       <c r="B5" s="5">
         <v>10010101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5">
         <v>50000</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:11">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:12">
       <c r="B6" s="5">
         <v>10010201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5">
         <v>50000</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:11">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:12">
       <c r="B7" s="5">
         <v>10010202</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
         <v>20000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J7" s="5">
         <v>99</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:11">
-      <c r="B8" s="5">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:12">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:12">
+      <c r="B10" s="5">
         <v>30000001</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:11">
-      <c r="B9" s="5">
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:12">
+      <c r="B11" s="5">
         <v>30010001</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>50000</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:11">
-      <c r="B10" s="5">
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:12">
+      <c r="B12" s="5">
         <v>30010002</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:11">
-      <c r="B11" s="7">
-        <v>30020001</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:11">
-      <c r="B12" s="5">
-        <v>30030001</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <v>20000</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J12" s="5">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:11">
-      <c r="B13" s="7">
-        <v>30040001</v>
+      <c r="L12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:12">
+      <c r="B13" s="9">
+        <v>30020001</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="12" t="s">
-        <v>31</v>
+      <c r="F13" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:11">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:12">
       <c r="B14" s="5">
-        <v>40000001</v>
+        <v>30030001</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="5">
+        <v>99</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:12">
+      <c r="B15" s="9">
+        <v>30040001</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:12">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:12">
+      <c r="B18" s="5">
+        <v>40000001</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>25000</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:11">
-      <c r="B15" s="5">
+      <c r="K18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:12">
+      <c r="B19" s="5">
         <v>40000101</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>15000</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="F19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="5">
         <v>99</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:11">
-      <c r="B16" s="5">
-        <v>92000001</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:11">
-      <c r="B17" s="5">
-        <v>92010001</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:11">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="5"/>
-      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:11">
-      <c r="B20" s="5">
-        <v>97010001</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="L19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:12">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:11">
-      <c r="B21" s="5">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:12">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:12">
+      <c r="B22" s="5">
+        <v>50010001</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:12">
+      <c r="B23" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:12">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:12">
+      <c r="B26" s="5">
+        <v>97010001</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:12">
+      <c r="B27" s="5">
         <v>97010002</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12" t="s">
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:12">
+      <c r="B28" s="5">
+        <v>97010003</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:12">
+      <c r="B29" s="5">
+        <v>97010004</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:11">
-      <c r="B22" s="5">
-        <v>97010003</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:11">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="2">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:12">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2">
         <v>98010001</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2">
         <v>50000</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="2:10">
-      <c r="B26" s="2">
+    <row r="33" hidden="1" spans="2:10">
+      <c r="B33" s="2">
         <v>98010002</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2">
         <v>30000</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="F33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2057,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="2:10">
+    <row r="33" spans="2:10">
       <c r="B33" s="2">
         <v>98010002</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -44,12 +44,17 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>自己
-己方队伍
-敌方队伍
-非敌队伍
-反击
-全体</t>
+          <t>None		0
+SingleSelf	自己	1
+Self	友方含自己	2
+Friend	友方不含自己	3
+Enemy	敌方队伍	4
+NotEnemy	非敌队伍	5
+Counter	反击	6
+All	全体	7
+Global	全局	8
+FriendTeam	友方全局	9
+EnemyTeam	敌方全局	10</t>
         </r>
       </text>
     </comment>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -202,51 +207,48 @@
     <t>随机</t>
   </si>
   <si>
-    <t>防御塔普攻</t>
-  </si>
-  <si>
-    <t>防御塔子弹范围伤</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>添加攻速BUFF</t>
+    <t>TowerFlower5 加成</t>
+  </si>
+  <si>
+    <t>友方不含自己</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>士兵技能相关索敌</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>英雄|士兵|建筑</t>
+  </si>
+  <si>
+    <t>死亡自爆</t>
+  </si>
+  <si>
+    <t>使用物品索敌配置</t>
+  </si>
+  <si>
+    <t>使用血瓶</t>
   </si>
   <si>
     <t>友方含自己</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>资源塔</t>
-  </si>
-  <si>
-    <t>士兵技能相关索敌</t>
-  </si>
-  <si>
-    <t>普攻</t>
-  </si>
-  <si>
-    <t>英雄|士兵|建筑</t>
-  </si>
-  <si>
-    <t>死亡自爆</t>
-  </si>
-  <si>
-    <t>使用物品索敌配置</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
-  </si>
-  <si>
     <t>英雄|建筑</t>
   </si>
   <si>
     <t>使用水瓶</t>
   </si>
   <si>
+    <t>1个友方英雄或建筑</t>
+  </si>
+  <si>
     <t>以下为通用索敌配置</t>
   </si>
   <si>
@@ -268,7 +270,16 @@
     <t>敌方全局</t>
   </si>
   <si>
-    <t>1个友方英雄或建筑</t>
+    <t>普攻索敌1</t>
+  </si>
+  <si>
+    <t>普攻索敌99</t>
+  </si>
+  <si>
+    <t>爆炸10000</t>
+  </si>
+  <si>
+    <t>爆炸20000</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -278,9 +289,6 @@
   </si>
   <si>
     <t>周围有友方</t>
-  </si>
-  <si>
-    <t>友方不含自己</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1636,188 +1644,175 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="2:12">
       <c r="B11" s="5">
-        <v>30010001</v>
+        <v>30030001</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>50000</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:12">
-      <c r="B12" s="5">
-        <v>30010002</v>
+      <c r="B12" s="9">
+        <v>30060001</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="5">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:12">
-      <c r="B13" s="9">
-        <v>30020001</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:12">
-      <c r="B14" s="5">
-        <v>30030001</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F14" s="5" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:12">
+      <c r="B15" s="5">
+        <v>40000001</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:12">
+      <c r="B16" s="5">
+        <v>40000101</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="5">
         <v>99</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:12">
-      <c r="B15" s="9">
-        <v>30040001</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:12">
-      <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="5"/>
-      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:12">
-      <c r="A17" s="7" t="s">
+      <c r="L16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:12">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:12">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:12">
-      <c r="B18" s="5">
-        <v>40000001</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:12">
       <c r="B19" s="5">
-        <v>40000101</v>
+        <v>50010001</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
+        <v>5000</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J19" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
@@ -1825,124 +1820,129 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:12">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="E20" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="L20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:12">
+      <c r="B21" s="5">
+        <v>50030001</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:12">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:12">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:12">
-      <c r="B22" s="5">
-        <v>50010001</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:12">
-      <c r="B23" s="5">
-        <v>50020001</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="2:12">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5">
+        <v>97010001</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:12">
-      <c r="A25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+    <row r="25" s="2" customFormat="1" spans="2:12">
+      <c r="B25" s="5">
+        <v>97010002</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:12">
       <c r="B26" s="5">
-        <v>97010001</v>
+        <v>97010003</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G26" s="5"/>
       <c r="J26" s="5"/>
@@ -1951,15 +1951,15 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="2:12">
       <c r="B27" s="5">
-        <v>97010002</v>
+        <v>97020001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G27" s="5"/>
       <c r="J27" s="5"/>
@@ -1968,112 +1968,160 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="2:12">
       <c r="B28" s="5">
-        <v>97010003</v>
+        <v>97030001</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="J28" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:12">
       <c r="B29" s="5">
-        <v>97010004</v>
+        <v>97030002</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>5000</v>
-      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J29" s="5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:12">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5">
+        <v>97040001</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="E30" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="5">
+        <v>99</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+    <row r="31" s="2" customFormat="1" spans="2:12">
+      <c r="B31" s="5">
+        <v>97040002</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="5">
+        <v>99</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:12">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="2">
         <v>98010001</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2">
         <v>50000</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="G34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="2">
+    <row r="35" spans="2:10">
+      <c r="B35" s="2">
         <v>98010002</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="2">
         <v>30000</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J35" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -207,88 +207,88 @@
     <t>随机</t>
   </si>
   <si>
-    <t>TowerFlower5 加成</t>
+    <t>TowerFlower5 加成周围</t>
+  </si>
+  <si>
+    <t>友方含自己</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>士兵技能相关索敌</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>英雄|士兵|建筑</t>
+  </si>
+  <si>
+    <t>死亡自爆</t>
+  </si>
+  <si>
+    <t>使用物品索敌配置</t>
+  </si>
+  <si>
+    <t>使用血瓶</t>
+  </si>
+  <si>
+    <t>英雄|建筑</t>
+  </si>
+  <si>
+    <t>使用水瓶</t>
+  </si>
+  <si>
+    <t>1个友方英雄或建筑</t>
+  </si>
+  <si>
+    <t>以下为通用索敌配置</t>
+  </si>
+  <si>
+    <t>全局单位</t>
+  </si>
+  <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>友方全局单位</t>
+  </si>
+  <si>
+    <t>友方全局</t>
+  </si>
+  <si>
+    <t>敌方全局单位</t>
+  </si>
+  <si>
+    <t>敌方全局</t>
+  </si>
+  <si>
+    <t>普攻索敌1</t>
+  </si>
+  <si>
+    <t>普攻索敌99</t>
+  </si>
+  <si>
+    <t>爆炸10000</t>
+  </si>
+  <si>
+    <t>爆炸20000</t>
+  </si>
+  <si>
+    <t>以下为AI感知环境使</t>
+  </si>
+  <si>
+    <t>周围有敌方</t>
+  </si>
+  <si>
+    <t>周围有友方</t>
   </si>
   <si>
     <t>友方不含自己</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>TowerSquare</t>
-  </si>
-  <si>
-    <t>士兵技能相关索敌</t>
-  </si>
-  <si>
-    <t>普攻</t>
-  </si>
-  <si>
-    <t>英雄|士兵|建筑</t>
-  </si>
-  <si>
-    <t>死亡自爆</t>
-  </si>
-  <si>
-    <t>使用物品索敌配置</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
-  </si>
-  <si>
-    <t>友方含自己</t>
-  </si>
-  <si>
-    <t>英雄|建筑</t>
-  </si>
-  <si>
-    <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>1个友方英雄或建筑</t>
-  </si>
-  <si>
-    <t>以下为通用索敌配置</t>
-  </si>
-  <si>
-    <t>全局单位</t>
-  </si>
-  <si>
-    <t>全局</t>
-  </si>
-  <si>
-    <t>友方全局单位</t>
-  </si>
-  <si>
-    <t>友方全局</t>
-  </si>
-  <si>
-    <t>敌方全局单位</t>
-  </si>
-  <si>
-    <t>敌方全局</t>
-  </si>
-  <si>
-    <t>普攻索敌1</t>
-  </si>
-  <si>
-    <t>普攻索敌99</t>
-  </si>
-  <si>
-    <t>爆炸10000</t>
-  </si>
-  <si>
-    <t>爆炸20000</t>
-  </si>
-  <si>
-    <t>以下为AI感知环境使</t>
-  </si>
-  <si>
-    <t>周围有敌方</t>
-  </si>
-  <si>
-    <t>周围有友方</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1806,10 +1806,10 @@
         <v>5000</v>
       </c>
       <c r="F19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -1824,17 +1824,17 @@
         <v>50020001</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
         <v>5000</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -1849,17 +1849,17 @@
         <v>50030001</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <v>5000</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1903,12 +1903,12 @@
         <v>97010001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="5"/>
       <c r="J24" s="5"/>
@@ -1920,12 +1920,12 @@
         <v>97010002</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="5"/>
       <c r="J25" s="5"/>
@@ -1937,12 +1937,12 @@
         <v>97010003</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="5"/>
       <c r="J26" s="5"/>
@@ -1971,7 +1971,7 @@
         <v>97030001</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1979,12 +1979,14 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>97030002</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2002,7 +2004,7 @@
         <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J29" s="5">
         <v>99</v>
@@ -2015,7 +2017,7 @@
         <v>97040001</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -2038,7 +2040,7 @@
         <v>97040002</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
@@ -2073,7 +2075,7 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2090,7 +2092,7 @@
         <v>98010001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2">
         <v>50000</v>
@@ -2110,13 +2112,13 @@
         <v>98010002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2">
         <v>30000</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>31</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -16,10 +16,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>stone</author>
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">    None 
+    Circle 圆形
+    Sector 扇形
+    Rectangle 矩形
+    Cross 十字</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>范围为空或者配置&lt;=0代表以攻击距离为准。
+参数多个时必须配0以占位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -27,38 +57,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">自己
-己方队伍
-敌方队伍
-非敌队伍
-反击
-</t>
+          <t xml:space="preserve">    None 
+    Self 自己
+    Friend 友方含自己
+    FriendExcludeSelf 友方不含自己
+    Enemy 敌方队伍
+    Counter 反击
+    All 全体
+    Global 全局
+    FriendTeam 友方全局
+    EnemyTeam 敌方全局</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>None		0
-SingleSelf	自己	1
-Self	友方含自己	2
-Friend	友方不含自己	3
-Enemy	敌方队伍	4
-NotEnemy	非敌队伍	5
-Counter	反击	6
-All	全体	7
-Global	全局	8
-FriendTeam	友方全局	9
-EnemyTeam	敌方全局	10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -77,12 +89,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>&lt;=0不过滤数量</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -90,10 +114,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>valid_forward</t>
-  </si>
-  <si>
-    <t>range</t>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>shape_param</t>
   </si>
   <si>
     <t>team</t>
@@ -120,7 +144,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>bool</t>
+    <t>ESearchTargetShape</t>
+  </si>
+  <si>
+    <t>array,int</t>
   </si>
   <si>
     <t>ESearchTargetTeam</t>
@@ -129,9 +156,6 @@
     <t>EUnitType</t>
   </si>
   <si>
-    <t>array,int</t>
-  </si>
-  <si>
     <t>NumericType</t>
   </si>
   <si>
@@ -147,10 +171,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>是否朝向过滤</t>
-  </si>
-  <si>
-    <t>范围</t>
+    <t>形状</t>
+  </si>
+  <si>
+    <t>形状参数(范围)</t>
+  </si>
+  <si>
+    <t>形状参数</t>
   </si>
   <si>
     <t>队伍</t>
@@ -174,6 +201,9 @@
     <t>英雄普攻</t>
   </si>
   <si>
+    <t>圆形</t>
+  </si>
+  <si>
     <t>敌方队伍</t>
   </si>
   <si>
@@ -195,6 +225,9 @@
     <t>英雄 3目标子弹伤害</t>
   </si>
   <si>
+    <t>扇形</t>
+  </si>
+  <si>
     <t>炮弹落地重新索敌</t>
   </si>
   <si>
@@ -210,6 +243,9 @@
     <t>TowerFlower5 加成周围</t>
   </si>
   <si>
+    <t>矩形</t>
+  </si>
+  <si>
     <t>友方含自己</t>
   </si>
   <si>
@@ -217,6 +253,9 @@
   </si>
   <si>
     <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>十字</t>
   </si>
   <si>
     <t>士兵技能相关索敌</t>
@@ -301,7 +340,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +554,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -992,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1021,23 +1065,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1361,10 +1408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1372,19 +1419,20 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.1607142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6607142857143" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.3482142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.92857142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6428571428571" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.8571428571429" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="50.4464285714286" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.9017857142857" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.3482142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.92857142857143" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.6428571428571" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.8571428571429" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="50.4464285714286" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1395,30 +1443,32 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1429,30 +1479,32 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1465,324 +1517,368 @@
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:12">
+      <c r="N3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:14">
       <c r="B4" s="5">
         <v>10010001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5">
-        <v>99</v>
-      </c>
-      <c r="K4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:12">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:14">
       <c r="B5" s="5">
         <v>10010101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:12">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:14">
       <c r="B6" s="5">
         <v>10010201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="5">
         <v>50000</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="F6" s="6">
+        <v>45</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:12">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:14">
       <c r="B7" s="5">
         <v>10010202</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="5">
         <v>20000</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5">
-        <v>99</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:12">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:14">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:12">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:14">
       <c r="B10" s="5">
         <v>30000001</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:12">
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:14">
       <c r="B11" s="5">
         <v>30030001</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="5">
-        <v>99</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:12">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:14">
       <c r="B12" s="9">
         <v>30060001</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="5">
-        <v>99</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5">
+        <v>80000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:12">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:14">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:12">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:14">
       <c r="B15" s="5">
-        <v>40000001</v>
+        <v>40010001</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="5">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:12">
+      <c r="M15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:14">
       <c r="B16" s="5">
         <v>40000101</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="5">
         <v>15000</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="5">
-        <v>99</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:12">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:14">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:12">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1793,289 +1889,327 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="2:12">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:14">
       <c r="B19" s="5">
         <v>50010001</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="5">
         <v>5000</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="5">
         <v>1</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:12">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:14">
       <c r="B20" s="5">
         <v>50020001</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="5">
         <v>5000</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:12">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:14">
       <c r="B21" s="5">
         <v>50030001</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="5">
         <v>5000</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:12">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:14">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:12">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:14">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="2:12">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:14">
       <c r="B24" s="5">
         <v>97010001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="H24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="2:12">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:14">
       <c r="B25" s="5">
         <v>97010002</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="H25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="2:12">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:14">
       <c r="B26" s="5">
         <v>97010003</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="2:12">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:14">
       <c r="B27" s="5">
         <v>97020001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="H27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:12">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:14">
       <c r="B28" s="5">
         <v>97030001</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="5">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:12">
+      <c r="M28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:14">
       <c r="B29" s="5">
         <v>97030002</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="5">
-        <v>99</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="2:12">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:14">
       <c r="B30" s="5">
         <v>97040001</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E30" s="5">
         <v>10000</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="5">
-        <v>99</v>
-      </c>
-      <c r="K30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="2:12">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="2:14">
       <c r="B31" s="5">
         <v>97040002</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E31" s="5">
         <v>20000</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="5">
-        <v>99</v>
-      </c>
-      <c r="K31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="2:12">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:14">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2086,51 +2220,61 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" s="2">
         <v>98010001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E34" s="2">
         <v>50000</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="H34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:12">
       <c r="B35" s="2">
         <v>98010002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E35" s="2">
         <v>30000</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>爆炸20000</t>
+  </si>
+  <si>
+    <t>朝向型子弹</t>
+  </si>
+  <si>
+    <t>直线</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -1408,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B31" sqref="B31:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2191,81 +2197,108 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="2:14">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="5">
+        <v>97050001</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10000</v>
+      </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="5"/>
+      <c r="H32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="2" customFormat="1" spans="2:14">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="2">
-        <v>98010001</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="2">
-        <v>5</v>
-      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="2">
-        <v>98010002</v>
+        <v>98010001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="2">
+        <v>98010002</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2">
         <v>30000</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L36" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:I32"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1763,7 +1763,7 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="12" t="s">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="12" t="s">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -201,31 +201,31 @@
     <t>英雄普攻</t>
   </si>
   <si>
+    <t>扇形</t>
+  </si>
+  <si>
+    <t>敌方队伍</t>
+  </si>
+  <si>
+    <t>英雄|士兵</t>
+  </si>
+  <si>
+    <t>增加普攻目标</t>
+  </si>
+  <si>
+    <t>最近距离</t>
+  </si>
+  <si>
+    <t>英雄添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>英雄 3目标子弹伤害</t>
+  </si>
+  <si>
     <t>圆形</t>
-  </si>
-  <si>
-    <t>敌方队伍</t>
-  </si>
-  <si>
-    <t>英雄|士兵</t>
-  </si>
-  <si>
-    <t>增加普攻目标</t>
-  </si>
-  <si>
-    <t>最近距离</t>
-  </si>
-  <si>
-    <t>英雄添加攻速BUFF</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>英雄 3目标子弹伤害</t>
-  </si>
-  <si>
-    <t>扇形</t>
   </si>
   <si>
     <t>炮弹落地重新索敌</t>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1567,7 +1567,9 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>90</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="5" t="s">
         <v>32</v>
@@ -1613,11 +1615,9 @@
         <v>39</v>
       </c>
       <c r="E6" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
@@ -1641,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>20000</v>
@@ -1701,7 +1701,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1817,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1846,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5">
         <v>15000</v>
@@ -1906,7 +1906,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5">
         <v>5000</v>
@@ -1935,7 +1935,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5">
         <v>5000</v>
@@ -1964,7 +1964,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5">
         <v>5000</v>
@@ -2102,7 +2102,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2131,7 +2131,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2154,7 +2154,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E30" s="5">
         <v>10000</v>
@@ -2179,7 +2179,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E31" s="5">
         <v>20000</v>
@@ -2264,7 +2264,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2">
         <v>50000</v>
@@ -2287,7 +2287,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2">
         <v>30000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -261,13 +261,13 @@
     <t>士兵技能相关索敌</t>
   </si>
   <si>
+    <t>基地边自爆</t>
+  </si>
+  <si>
     <t>普攻</t>
   </si>
   <si>
     <t>英雄|士兵|建筑</t>
-  </si>
-  <si>
-    <t>死亡自爆</t>
   </si>
   <si>
     <t>使用物品索敌配置</t>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:14">
       <c r="B15" s="5">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>51</v>
@@ -1819,48 +1819,52 @@
       <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>15000</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>30005</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:14">
       <c r="B16" s="5">
-        <v>40000101</v>
+        <v>40010001</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5">
-        <v>15000</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="N16" s="5" t="s">
         <v>35</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
@@ -2140,7 +2144,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -2273,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L35" s="2">
         <v>5</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -318,10 +318,16 @@
     <t>爆炸20000</t>
   </si>
   <si>
-    <t>朝向型子弹</t>
+    <t>0.25半径球形子弹非碰撞索敌</t>
   </si>
   <si>
     <t>直线</t>
+  </si>
+  <si>
+    <t>0.25半球形子弹碰撞索敌</t>
+  </si>
+  <si>
+    <t>0.5长宽高方形子弹碰撞索敌</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -1414,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2228,81 +2234,135 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="2:14">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="5">
+        <v>97050002</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2500</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="2" customFormat="1" spans="2:14">
+      <c r="B34" s="5">
+        <v>97050003</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="2:14">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="2">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="2">
         <v>98010001</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="2">
         <v>50000</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L37" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="2">
+    <row r="38" spans="2:12">
+      <c r="B38" s="2">
         <v>98010002</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E38" s="2">
         <v>30000</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L38" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -318,16 +318,13 @@
     <t>爆炸20000</t>
   </si>
   <si>
-    <t>0.25半径球形子弹非碰撞索敌</t>
+    <t>爆炸30000</t>
+  </si>
+  <si>
+    <t>子弹非碰撞索敌</t>
   </si>
   <si>
     <t>直线</t>
-  </si>
-  <si>
-    <t>0.25半球形子弹碰撞索敌</t>
-  </si>
-  <si>
-    <t>0.5长宽高方形子弹碰撞索敌</t>
   </si>
   <si>
     <t>以下为AI感知环境使</t>
@@ -1420,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2208,20 +2205,18 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="2:14">
       <c r="B32" s="5">
-        <v>97050001</v>
+        <v>97040003</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="12" t="s">
         <v>32</v>
@@ -2235,18 +2230,20 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="2:14">
       <c r="B33" s="5">
-        <v>97050002</v>
+        <v>97050001</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E33" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5000</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="12" t="s">
         <v>32</v>
@@ -2259,70 +2256,64 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="2:14">
-      <c r="B34" s="5">
-        <v>97050003</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5000</v>
-      </c>
-      <c r="G34" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="2:14">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="7" t="s">
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="2">
+        <v>98010001</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="2">
-        <v>98010001</v>
+        <v>98010002</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>75</v>
@@ -2331,38 +2322,15 @@
         <v>39</v>
       </c>
       <c r="E37" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="2">
-        <v>98010002</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>敌方全局</t>
+  </si>
+  <si>
+    <t>所属玩家单位</t>
+  </si>
+  <si>
+    <t>所属玩家</t>
   </si>
   <si>
     <t>普攻索敌1</t>
@@ -1417,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2084,17 +2090,17 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="2:14">
       <c r="B27" s="5">
-        <v>97020001</v>
+        <v>97010004</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="12" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I27" s="5"/>
       <c r="L27" s="5"/>
@@ -2103,39 +2109,29 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="2:14">
       <c r="B28" s="5">
-        <v>97030001</v>
+        <v>97020001</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:14">
       <c r="B29" s="5">
-        <v>97030002</v>
+        <v>97030001</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>39</v>
@@ -2149,30 +2145,34 @@
       <c r="I29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:14">
       <c r="B30" s="5">
-        <v>97040001</v>
+        <v>97030002</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="5">
-        <v>10000</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2180,16 +2180,16 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="2:14">
       <c r="B31" s="5">
-        <v>97040002</v>
+        <v>97040001</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2205,16 +2205,16 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="2:14">
       <c r="B32" s="5">
-        <v>97040003</v>
+        <v>97040002</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2230,20 +2230,18 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="2:14">
       <c r="B33" s="5">
-        <v>97050001</v>
+        <v>97040003</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="12" t="s">
         <v>32</v>
@@ -2256,81 +2254,108 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="2:14">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="5">
+        <v>97050001</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5000</v>
+      </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="7" t="s">
+    <row r="35" s="2" customFormat="1" spans="2:14">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="2">
-        <v>98010001</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="2">
-        <v>5</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="2">
-        <v>98010002</v>
+        <v>98010001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="2">
+        <v>98010002</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
         <v>30000</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L38" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Search.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -231,6 +231,18 @@
     <t>炮弹落地重新索敌</t>
   </si>
   <si>
+    <t>地块技能相关索敌</t>
+  </si>
+  <si>
+    <t>横一字型 激活技</t>
+  </si>
+  <si>
+    <t>友方不含自己</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
     <t>建筑技能相关索敌</t>
   </si>
   <si>
@@ -249,9 +261,6 @@
     <t>友方含自己</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
     <t>TowerSquare</t>
   </si>
   <si>
@@ -340,9 +349,6 @@
   </si>
   <si>
     <t>周围有友方</t>
-  </si>
-  <si>
-    <t>友方不含自己</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1704,7 +1710,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="2:14">
       <c r="B10" s="5">
-        <v>30000001</v>
+        <v>20010001</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
@@ -1712,208 +1718,204 @@
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>1000</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:14">
-      <c r="B11" s="5">
-        <v>30030001</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F11" s="5">
-        <v>25000</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:14">
-      <c r="B12" s="9">
-        <v>30060001</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="5">
-        <v>80000</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+    <row r="12" s="2" customFormat="1" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:14">
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5">
+        <v>30000001</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:14">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:14">
+      <c r="B14" s="5">
+        <v>30030001</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>25000</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="I14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:14">
-      <c r="B15" s="5">
-        <v>40000101</v>
+      <c r="B15" s="9">
+        <v>30060001</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>80000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5000</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="2">
-        <v>30001</v>
-      </c>
-      <c r="K15" s="2">
-        <v>30005</v>
+        <v>33</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:14">
-      <c r="B16" s="5">
-        <v>40010001</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:14">
+      <c r="B18" s="5">
+        <v>40000101</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:14">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:14">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="I18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2">
+        <v>30001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>30005</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:14">
       <c r="B19" s="5">
-        <v>50010001</v>
+        <v>40010001</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>55</v>
@@ -1921,186 +1923,191 @@
       <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5">
-        <v>5000</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="L19" s="5">
         <v>1</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="N19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:14">
-      <c r="B20" s="5">
-        <v>50020001</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5000</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:14">
-      <c r="B21" s="5">
-        <v>50030001</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:14">
+      <c r="B22" s="5">
+        <v>50010001</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>5000</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:14">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="H22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:14">
-      <c r="A23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="N22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:14">
+      <c r="B23" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="2:14">
       <c r="B24" s="5">
-        <v>97010001</v>
+        <v>50030001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5000</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="L24" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="2:14">
-      <c r="B25" s="5">
-        <v>97010002</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="2:14">
-      <c r="B26" s="5">
-        <v>97010003</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+    <row r="26" s="2" customFormat="1" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="2:14">
       <c r="B27" s="5">
-        <v>97010004</v>
+        <v>97010001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I27" s="5"/>
       <c r="L27" s="5"/>
@@ -2109,17 +2116,17 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="2:14">
       <c r="B28" s="5">
-        <v>97020001</v>
+        <v>97010002</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I28" s="5"/>
       <c r="L28" s="5"/>
@@ -2128,84 +2135,64 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="2:14">
       <c r="B29" s="5">
-        <v>97030001</v>
+        <v>97010003</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:14">
       <c r="B30" s="5">
-        <v>97030002</v>
+        <v>97010004</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="2:14">
       <c r="B31" s="5">
-        <v>97040001</v>
+        <v>97020001</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="5">
-        <v>10000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="2:14">
       <c r="B32" s="5">
-        <v>97040002</v>
+        <v>97030001</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>71</v>
@@ -2213,24 +2200,28 @@
       <c r="D32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="5">
-        <v>20000</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="2:14">
       <c r="B33" s="5">
-        <v>97040003</v>
+        <v>97030002</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>72</v>
@@ -2238,16 +2229,14 @@
       <c r="D33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5">
-        <v>30000</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2255,20 +2244,18 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="2:14">
       <c r="B34" s="5">
-        <v>97050001</v>
+        <v>97040001</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="12" t="s">
         <v>32</v>
@@ -2281,81 +2268,158 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="2:14">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="5">
+        <v>97040002</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="5">
+        <v>20000</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="7" t="s">
+    <row r="36" s="2" customFormat="1" spans="2:14">
+      <c r="B36" s="5">
+        <v>97040003</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="2:14">
+      <c r="B37" s="5">
+        <v>97050001</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="2:14">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="2">
         <v>98010001</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E40" s="2">
         <v>50000</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="I40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="2">
+    <row r="41" spans="2:12">
+      <c r="B41" s="2">
         <v>98010002</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E41" s="2">
         <v>30000</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L41" s="2">
         <v>5</v>
       </c>
     </row>
